--- a/vuln_pen/web_biz.xlsx
+++ b/vuln_pen/web_biz.xlsx
@@ -8,20 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SUDZ4DEV/cyber-research/vuln_pen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEC45C1-1310-D747-A0C7-BBCCC3481571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50181447-92A1-E04C-8278-0CF0CEFE42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSINESS" sheetId="1" r:id="rId1"/>
     <sheet name="WEBSITE" sheetId="2" r:id="rId2"/>
+    <sheet name="ASSET INVENTORY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="83">
   <si>
     <t>IP</t>
   </si>
@@ -191,12 +205,123 @@
   <si>
     <t>Vulnerability Assessment Report: WEBSITE-1 Network Segment: 172.16.10.0/24</t>
   </si>
+  <si>
+    <t>Network Segment</t>
+  </si>
+  <si>
+    <t>BUSINESS-1</t>
+  </si>
+  <si>
+    <t>WIN10-5-OC1</t>
+  </si>
+  <si>
+    <t>C7-2-OC1</t>
+  </si>
+  <si>
+    <t>WIN10-4-OC1</t>
+  </si>
+  <si>
+    <t>172.16.1.41</t>
+  </si>
+  <si>
+    <t>WIN10-2-OC1</t>
+  </si>
+  <si>
+    <t>172.16.1.81</t>
+  </si>
+  <si>
+    <t>U20-2-OC1</t>
+  </si>
+  <si>
+    <t>DW-DC-OC1</t>
+  </si>
+  <si>
+    <t>U20-1-OC1</t>
+  </si>
+  <si>
+    <t>C7-1-OC1</t>
+  </si>
+  <si>
+    <t>DW-FS-OC1</t>
+  </si>
+  <si>
+    <t>WIN10-3-OC1</t>
+  </si>
+  <si>
+    <t>172.16.1.234</t>
+  </si>
+  <si>
+    <t>WIN10-1-OC1</t>
+  </si>
+  <si>
+    <t>172.16.1.251</t>
+  </si>
+  <si>
+    <t>WEBSITE-1</t>
+  </si>
+  <si>
+    <t>C7W-1-OC1</t>
+  </si>
+  <si>
+    <t>C7W-2-OC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSET INVENTORY- WEBSITE-1: 172.16.10.0/24 BUSINESS-1: 172.16.1.0/24 </t>
+  </si>
+  <si>
+    <t>Kali Linux PenTesting Machine</t>
+  </si>
+  <si>
+    <t>172.16.1.188</t>
+  </si>
+  <si>
+    <t>WEBSITE-2</t>
+  </si>
+  <si>
+    <t>WEBSITE-3</t>
+  </si>
+  <si>
+    <t>WEBSITE-4</t>
+  </si>
+  <si>
+    <t>WEBSITE-5</t>
+  </si>
+  <si>
+    <t>Operatiing System (OS)</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Ubuntu Linux 20</t>
+  </si>
+  <si>
+    <t>CentOS 7</t>
+  </si>
+  <si>
+    <t>Domain Controller</t>
+  </si>
+  <si>
+    <t>File Server</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Kali Linux</t>
+  </si>
+  <si>
+    <t>Windows 2016</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +356,32 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -271,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -292,6 +443,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -637,7 +793,10 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(A3, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-DC-OC1</v>
+      </c>
       <c r="C3" s="2">
         <v>445</v>
       </c>
@@ -658,7 +817,10 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-2-OC1</v>
+      </c>
       <c r="C4" s="2">
         <v>22</v>
       </c>
@@ -679,7 +841,10 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-1-OC1</v>
+      </c>
       <c r="C5" s="2">
         <v>22</v>
       </c>
@@ -700,7 +865,10 @@
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-FS-OC1</v>
+      </c>
       <c r="C6" s="2">
         <v>3389</v>
       </c>
@@ -719,7 +887,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-DC-OC1</v>
+      </c>
       <c r="C7" s="2">
         <v>3389</v>
       </c>
@@ -738,7 +909,10 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>WIN10-5-OC1</v>
+      </c>
       <c r="C8" s="2">
         <v>135</v>
       </c>
@@ -759,7 +933,10 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP(A9, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-FS-OC1</v>
+      </c>
       <c r="C9" s="2">
         <v>135</v>
       </c>
@@ -780,7 +957,10 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-DC-OC1</v>
+      </c>
       <c r="C10" s="2">
         <v>135</v>
       </c>
@@ -801,7 +981,10 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>WIN10-5-OC1</v>
+      </c>
       <c r="C11" s="2">
         <v>3389</v>
       </c>
@@ -822,7 +1005,10 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP(A12, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-FS-OC1</v>
+      </c>
       <c r="C12" s="2">
         <v>3389</v>
       </c>
@@ -843,7 +1029,10 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="str">
+        <f>VLOOKUP(A13, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-2-OC1</v>
+      </c>
       <c r="C13" s="2">
         <v>22</v>
       </c>
@@ -862,7 +1051,10 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="str">
+        <f>VLOOKUP(A14, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-1-OC1</v>
+      </c>
       <c r="C14" s="2">
         <v>22</v>
       </c>
@@ -881,7 +1073,10 @@
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="str">
+        <f>VLOOKUP(A15, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-DC-OC1</v>
+      </c>
       <c r="C15" s="2">
         <v>3389</v>
       </c>
@@ -902,7 +1097,10 @@
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="str">
+        <f>VLOOKUP(A16, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-2-OC1</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
         <v>2.6</v>
@@ -921,7 +1119,10 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="str">
+        <f>VLOOKUP(A17, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-DC-OC1</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
         <v>2.6</v>
@@ -940,7 +1141,10 @@
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP(A18, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <v>2.6</v>
@@ -959,7 +1163,10 @@
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="str">
+        <f>VLOOKUP(A19, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>U20-1-OC1</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
         <v>2.6</v>
@@ -978,7 +1185,10 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="str">
+        <f>VLOOKUP(A20, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>U20-2-OC1</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>2.6</v>
@@ -997,7 +1207,10 @@
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="str">
+        <f>VLOOKUP(A21, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-1-OC1</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>2.6</v>
@@ -1016,7 +1229,10 @@
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="str">
+        <f>VLOOKUP(A22, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>DW-FS-OC1</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>2.6</v>
@@ -1035,7 +1251,10 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="str">
+        <f>VLOOKUP(A23, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>U20-2-OC1</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>2.1</v>
@@ -1054,7 +1273,10 @@
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="e">
+        <f>VLOOKUP(A24, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>2.1</v>
@@ -1073,7 +1295,10 @@
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="str">
+        <f>VLOOKUP(A25, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-2-OC1</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>2.1</v>
@@ -1092,7 +1317,10 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="str">
+        <f>VLOOKUP(A26, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7-1-OC1</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>2.1</v>
@@ -1111,7 +1339,10 @@
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="str">
+        <f>VLOOKUP(A27, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>U20-1-OC1</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>2.1</v>
@@ -1130,7 +1361,10 @@
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="e">
+        <f>VLOOKUP(A28, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>2.1</v>
@@ -1149,7 +1383,10 @@
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="str">
+        <f>VLOOKUP(A29, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>Kali Linux PenTesting Machine</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>2.1</v>
@@ -1168,7 +1405,10 @@
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="str">
+        <f>VLOOKUP(A30, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>Kali Linux PenTesting Machine</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>2.1</v>
@@ -1187,7 +1427,10 @@
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="str">
+        <f>VLOOKUP(A31, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>Kali Linux PenTesting Machine</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>2.1</v>
@@ -1212,7 +1455,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1497,10 @@
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="str">
+        <f>VLOOKUP(A3, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-2-OC1</v>
+      </c>
       <c r="C3" s="2">
         <v>80</v>
       </c>
@@ -1275,7 +1521,10 @@
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-1-OC1</v>
+      </c>
       <c r="C4" s="2">
         <v>80</v>
       </c>
@@ -1296,7 +1545,10 @@
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-1-OC1</v>
+      </c>
       <c r="C5" s="2">
         <v>80</v>
       </c>
@@ -1317,7 +1569,10 @@
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-2-OC1</v>
+      </c>
       <c r="C6" s="2">
         <v>80</v>
       </c>
@@ -1338,7 +1593,10 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="str">
+        <f>VLOOKUP(A7, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-2-OC1</v>
+      </c>
       <c r="C7" s="2">
         <v>22</v>
       </c>
@@ -1359,7 +1617,10 @@
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-1-OC1</v>
+      </c>
       <c r="C8" s="2">
         <v>22</v>
       </c>
@@ -1380,7 +1641,10 @@
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="str">
+        <f>VLOOKUP(A9, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-2-OC1</v>
+      </c>
       <c r="C9" s="2">
         <v>22</v>
       </c>
@@ -1399,7 +1663,10 @@
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-1-OC1</v>
+      </c>
       <c r="C10" s="2">
         <v>22</v>
       </c>
@@ -1418,7 +1685,10 @@
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="str">
+        <f>VLOOKUP(A11, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-2-OC1</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>2.6</v>
@@ -1437,7 +1707,10 @@
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP(A12, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-1-OC1</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>2.6</v>
@@ -1456,7 +1729,10 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <f>VLOOKUP(A13, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>2.6</v>
@@ -1475,7 +1751,10 @@
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="str">
+        <f>VLOOKUP(A14, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-1-OC1</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
         <v>2.1</v>
@@ -1494,7 +1773,10 @@
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="str">
+        <f>VLOOKUP(A15, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>C7W-2-OC1</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>2.1</v>
@@ -1513,7 +1795,10 @@
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP(A16, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
         <v>2.1</v>
@@ -1532,8 +1817,13 @@
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <f>VLOOKUP(A17, 'ASSET INVENTORY'!B:C, 2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>53</v>
+      </c>
       <c r="D17" s="2">
         <v>2.1</v>
       </c>
@@ -1550,4 +1840,305 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98C7985-2B6E-B347-AB20-DBBCBACE5828}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vuln_pen/web_biz.xlsx
+++ b/vuln_pen/web_biz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SUDZ4DEV/cyber-research/vuln_pen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50181447-92A1-E04C-8278-0CF0CEFE42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89EAB31-5FB3-014E-90FD-6A8011065B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSINESS" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
     <t>WEBSITE-5</t>
   </si>
   <si>
-    <t>Operatiing System (OS)</t>
-  </si>
-  <si>
     <t>Windows 10</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>Operating System (OS)</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G22" sqref="A16:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1454,15 +1454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.35">
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1857,6 +1857,7 @@
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.35">
@@ -1875,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1892,7 +1893,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1906,7 +1907,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1920,7 +1921,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1934,7 +1935,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1948,7 +1949,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1962,10 +1963,10 @@
         <v>55</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1979,7 +1980,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1993,7 +1994,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,10 +2008,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2024,7 +2025,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2038,7 +2039,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2052,7 +2053,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2066,7 +2067,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2078,7 +2079,7 @@
       </c>
       <c r="C16" s="9"/>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2092,7 +2093,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2106,7 +2107,7 @@
         <v>67</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2120,7 +2121,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
